--- a/sample.xlsx
+++ b/sample.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10713"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E847937D-2F7A-D64C-A541-200598862560}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB46AF66-0880-F143-B99B-0A132EFE3BFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2100" yWindow="160" windowWidth="26680" windowHeight="17840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,17 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$B$16:$M$116</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -694,6 +704,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="dd/mm/yy;@"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -736,7 +749,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -822,11 +835,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -903,27 +927,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -945,6 +948,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -954,6 +960,34 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1295,7 +1329,7 @@
   <dimension ref="B1:O116"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -1345,12 +1379,12 @@
       <c r="J3" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="K3" s="41" t="s">
+      <c r="K3" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="L3" s="42"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="43"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="34"/>
       <c r="O3" s="13" t="s">
         <v>135</v>
       </c>
@@ -1366,54 +1400,54 @@
       <c r="J4" s="13">
         <v>1</v>
       </c>
-      <c r="K4" s="32" t="s">
+      <c r="K4" s="35" t="s">
         <v>138</v>
       </c>
-      <c r="L4" s="33"/>
-      <c r="M4" s="33"/>
-      <c r="N4" s="34"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="37"/>
       <c r="O4" s="13"/>
     </row>
     <row r="5" spans="2:15" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="28" t="s">
         <v>144</v>
       </c>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
       <c r="I5" s="17"/>
       <c r="J5" s="13">
         <v>2</v>
       </c>
-      <c r="K5" s="32" t="s">
+      <c r="K5" s="35" t="s">
         <v>139</v>
       </c>
-      <c r="L5" s="33"/>
-      <c r="M5" s="33"/>
-      <c r="N5" s="34"/>
+      <c r="L5" s="36"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="37"/>
       <c r="O5" s="13"/>
     </row>
     <row r="6" spans="2:15" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
       <c r="I6" s="17"/>
       <c r="J6" s="13">
         <v>3</v>
       </c>
-      <c r="K6" s="32" t="s">
+      <c r="K6" s="35" t="s">
         <v>140</v>
       </c>
-      <c r="L6" s="33"/>
-      <c r="M6" s="33"/>
-      <c r="N6" s="34"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="37"/>
       <c r="O6" s="13"/>
     </row>
     <row r="7" spans="2:15" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
@@ -1427,12 +1461,12 @@
       <c r="J7" s="13">
         <v>4</v>
       </c>
-      <c r="K7" s="44" t="s">
+      <c r="K7" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="L7" s="45"/>
-      <c r="M7" s="45"/>
-      <c r="N7" s="46"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="39"/>
+      <c r="N7" s="40"/>
       <c r="O7" s="13"/>
     </row>
     <row r="8" spans="2:15" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
@@ -1446,12 +1480,12 @@
       <c r="J8" s="13">
         <v>5</v>
       </c>
-      <c r="K8" s="32" t="s">
+      <c r="K8" s="35" t="s">
         <v>117</v>
       </c>
-      <c r="L8" s="33"/>
-      <c r="M8" s="33"/>
-      <c r="N8" s="34"/>
+      <c r="L8" s="36"/>
+      <c r="M8" s="36"/>
+      <c r="N8" s="37"/>
       <c r="O8" s="13"/>
     </row>
     <row r="9" spans="2:15" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1463,12 +1497,12 @@
       <c r="J9" s="13">
         <v>6</v>
       </c>
-      <c r="K9" s="38" t="s">
+      <c r="K9" s="29" t="s">
         <v>142</v>
       </c>
-      <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
-      <c r="N9" s="40"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="31"/>
       <c r="O9" s="23"/>
     </row>
     <row r="10" spans="2:15" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1482,12 +1516,12 @@
       <c r="J10" s="13">
         <v>7</v>
       </c>
-      <c r="K10" s="29" t="s">
+      <c r="K10" s="41" t="s">
         <v>143</v>
       </c>
-      <c r="L10" s="30"/>
-      <c r="M10" s="30"/>
-      <c r="N10" s="31"/>
+      <c r="L10" s="42"/>
+      <c r="M10" s="42"/>
+      <c r="N10" s="43"/>
       <c r="O10" s="23"/>
     </row>
     <row r="11" spans="2:15" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
@@ -1499,18 +1533,21 @@
       <c r="J11" s="13">
         <v>8</v>
       </c>
-      <c r="K11" s="32" t="s">
+      <c r="K11" s="35" t="s">
         <v>128</v>
       </c>
-      <c r="L11" s="33"/>
-      <c r="M11" s="33"/>
-      <c r="N11" s="34"/>
+      <c r="L11" s="36"/>
+      <c r="M11" s="36"/>
+      <c r="N11" s="37"/>
       <c r="O11" s="13"/>
     </row>
     <row r="12" spans="2:15" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="18"/>
       <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
+      <c r="G12" s="47">
+        <f>F13-J17</f>
+        <v>3398</v>
+      </c>
       <c r="H12" s="17"/>
       <c r="I12" s="17"/>
       <c r="J12" s="17"/>
@@ -1531,41 +1568,41 @@
       <c r="L13" s="17"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B15" s="28" t="s">
+      <c r="B15" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="C15" s="28" t="s">
+      <c r="C15" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28" t="s">
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="G15" s="28" t="s">
+      <c r="G15" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="H15" s="28" t="s">
+      <c r="H15" s="46" t="s">
         <v>109</v>
       </c>
-      <c r="I15" s="35" t="s">
+      <c r="I15" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="J15" s="28" t="s">
+      <c r="J15" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="K15" s="28" t="s">
+      <c r="K15" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="L15" s="28" t="s">
+      <c r="L15" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="M15" s="28" t="s">
+      <c r="M15" s="46" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="16" spans="2:15" ht="15" x14ac:dyDescent="0.2">
-      <c r="B16" s="28"/>
+      <c r="B16" s="46"/>
       <c r="C16" s="2" t="s">
         <v>4</v>
       </c>
@@ -1575,14 +1612,14 @@
       <c r="E16" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="36"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="28"/>
-      <c r="L16" s="28"/>
-      <c r="M16" s="28"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="45"/>
+      <c r="J16" s="46"/>
+      <c r="K16" s="46"/>
+      <c r="L16" s="46"/>
+      <c r="M16" s="46"/>
     </row>
     <row r="17" spans="2:13" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="B17" s="9">
@@ -4124,6 +4161,18 @@
     <sortCondition ref="N12:N111"/>
   </sortState>
   <mergeCells count="20">
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="K10:N10"/>
+    <mergeCell ref="K11:N11"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="C15:E15"/>
     <mergeCell ref="B5:H6"/>
     <mergeCell ref="K9:N9"/>
     <mergeCell ref="K3:N3"/>
@@ -4132,18 +4181,6 @@
     <mergeCell ref="K6:N6"/>
     <mergeCell ref="K7:N7"/>
     <mergeCell ref="K8:N8"/>
-    <mergeCell ref="K10:N10"/>
-    <mergeCell ref="K11:N11"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4152,10 +4189,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L101"/>
+  <dimension ref="A1:L102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="C107" sqref="C107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6734,6 +6771,12 @@
         <v>121</v>
       </c>
     </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A102" s="48"/>
+      <c r="B102" s="49"/>
+      <c r="E102" s="50"/>
+      <c r="I102" s="50"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
